--- a/Timetables_accepted.xlsx
+++ b/Timetables_accepted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theatina\Documents\GitHubRepos\DialogSystemsCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4408052-CEF0-42ED-80FF-816AEA546E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C35B6F-F3B8-49D9-B65E-01B29AE28203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2508041D-C072-4BB4-954E-50E13A300356}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{2508041D-C072-4BB4-954E-50E13A300356}"/>
   </bookViews>
   <sheets>
     <sheet name="Exams-PPS" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="Classes-PPS" sheetId="3" r:id="rId3"/>
     <sheet name="Classes-PMS" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Classes-PMS'!$A$1:$F$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Classes-PPS'!$A$1:$F$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Exams-PMS'!$A$1:$F$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Exams-PPS'!$A$1:$F$42</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -194,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -217,14 +223,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2248,11 +2251,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F962C5A0-8A18-450C-B08D-BC0F4B516864}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2270,11 +2276,11 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <f>A3+1</f>
+        <f t="shared" ref="A4:A28" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2331,7 +2337,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2349,7 +2355,7 @@
     </row>
     <row r="6" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2370,7 +2376,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2391,7 +2397,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2412,7 +2418,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2430,7 +2436,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2448,7 +2454,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2466,7 +2472,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2484,7 +2490,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2502,7 +2508,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2520,7 +2526,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2538,7 +2544,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2556,7 +2562,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2574,7 +2580,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2592,7 +2598,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2610,7 +2616,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2628,7 +2634,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2646,7 +2652,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2664,7 +2670,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2682,7 +2688,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2700,7 +2706,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2718,7 +2724,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2736,7 +2742,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2754,7 +2760,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2772,7 +2778,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <f t="shared" ref="A29:A42" si="0">A28+1</f>
+        <f t="shared" ref="A29:A42" si="1">A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2790,7 +2796,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2808,7 +2814,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2826,7 +2832,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2844,7 +2850,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2862,7 +2868,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2880,7 +2886,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2898,7 +2904,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2916,7 +2922,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2934,7 +2940,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2955,7 +2961,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2973,7 +2979,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2991,7 +2997,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3009,7 +3015,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3033,19 +3039,26 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.19685039370078741" footer="0"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2573F5D2-1BC8-4BCC-8D2D-D952CACCBD53}">
-  <dimension ref="A1:F84"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3063,11 +3076,11 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -3106,7 +3119,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <f>A3+1</f>
+        <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3124,7 +3137,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3142,7 +3155,7 @@
     </row>
     <row r="6" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3163,7 +3176,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3184,7 +3197,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3205,7 +3218,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3223,7 +3236,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3241,7 +3254,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3259,7 +3272,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3277,7 +3290,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3295,7 +3308,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3313,7 +3326,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3331,7 +3344,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3349,7 +3362,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3367,7 +3380,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3385,7 +3398,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3403,7 +3416,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3421,7 +3434,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3439,7 +3452,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3457,7 +3470,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3475,7 +3488,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3493,7 +3506,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3511,7 +3524,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3529,7 +3542,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3547,7 +3560,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3565,7 +3578,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3583,7 +3596,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3601,7 +3614,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3619,7 +3632,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3637,7 +3650,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3655,7 +3668,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3673,7 +3686,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <f>A34+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3691,7 +3704,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <f>A35+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3709,7 +3722,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <f>A36+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3727,7 +3740,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <f>A37+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3745,7 +3758,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <f>A38+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3763,7 +3776,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <f>A39+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3781,7 +3794,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <f>A40+1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3799,7 +3812,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
-        <f>A41+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3818,220 +3831,143 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-    </row>
     <row r="50" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.19685039370078741" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFC502D-04E6-429B-9BDD-5B1D5C86ABF8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4049,11 +3985,11 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -4777,19 +4713,26 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0" header="0.19685039370078741" footer="0"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5D775C-85BF-4B8C-8EC4-B59DDBF8FCA6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4807,11 +4750,11 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -4871,7 +4814,7 @@
     </row>
     <row r="5" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A56" si="0">A4+1</f>
+        <f t="shared" ref="A5:A29" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5447,8 +5390,12 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.19685039370078741" footer="0"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;A</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>